--- a/overview_analysis.xlsx
+++ b/overview_analysis.xlsx
@@ -130,6 +130,30 @@
             <family val="2"/>
           </rPr>
           <t>) journals which actively discourage replications by stating explicitly that they did not accept replications for publication</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kristina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+retrieved on: 20th/21st March 2021</t>
         </r>
       </text>
     </comment>
@@ -501,7 +525,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="219">
   <si>
     <t>3L LANGUAGE LINGUISTICS LITERATURE THE SOUTHEAST ASIAN JOURNAL OF ENGLISH LANGUAGE STUDIES</t>
   </si>
@@ -869,9 +893,6 @@
     <t>https://www.tandfonline.com/toc/plcp20/current</t>
   </si>
   <si>
-    <t>https://www.tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=plcp21</t>
-  </si>
-  <si>
     <t>https://www.degruyter.com/journal/key/COGL/html</t>
   </si>
   <si>
@@ -1046,9 +1067,6 @@
     <t>https://www.tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=njql20</t>
   </si>
   <si>
-    <t>https://www.tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ncal20</t>
-  </si>
-  <si>
     <t>https://www.degruyter.com/journal/key/CLLT/html</t>
   </si>
   <si>
@@ -1068,6 +1086,102 @@
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/page/journal/14679612/homepage/productinformation.html</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>https://rals.scu.ac.ir/journal/authors.note</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/dsh/pages/About</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/PRBS/html#callForPapersHeader</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=rill20</t>
+  </si>
+  <si>
+    <t>http://www.ccsenet.org/journal/index.php/ijel/about</t>
+  </si>
+  <si>
+    <t>https://akjournals.com/view/journals/084/084-overview.xml</t>
+  </si>
+  <si>
+    <t>http://www.lingv.ro/RRLNotes%20for%20contributors.doc.pdf</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/IPRG/html</t>
+  </si>
+  <si>
+    <t>CHILD LANGUAGE TEACHING &amp; THERAPY</t>
+  </si>
+  <si>
+    <t>TRANSLATION &amp; INTERPRETING THE INTERNATIONAL JOURNAL OF TRANSLATION AND INTERPRETING</t>
+  </si>
+  <si>
+    <t>LANGUAGE LEARNING &amp; TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF LANGUAGE &amp; COMMUNICATION DISORDERS</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/aims-scope/CLT</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=rmla20</t>
+  </si>
+  <si>
+    <t>https://benjamins.com/catalog/gest</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/journal-of-the-international-phonetic-association/information</t>
+  </si>
+  <si>
+    <t>http://www.aelfe.org/documents/IBERICA_Style_sheet_v10.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/annual-review-of-applied-linguistics</t>
+  </si>
+  <si>
+    <t>LINGUISTICA ANTVERPIENSIA NEW SERIES - THEMES IN TRANSLATION STUDIES</t>
+  </si>
+  <si>
+    <t>https://lans-tts.uantwerpen.be/index.php/LANS-TTS/index</t>
+  </si>
+  <si>
+    <t>https://benjamins.com/catalog/term</t>
+  </si>
+  <si>
+    <t>https://www.annualreviews.org/journal/linguistics</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/journal-of-french-language-studies</t>
+  </si>
+  <si>
+    <t>http://www.ling.sinica.edu.tw/LL/en/about</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/nordic-journal-of-linguistics</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/aims-scope/LAL</t>
+  </si>
+  <si>
+    <t>https://benjamins.com/catalog/babel</t>
+  </si>
+  <si>
+    <t>https://benjamins.com/catalog/ijcl</t>
+  </si>
+  <si>
+    <t>https://benjamins.com/catalog/itl</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=plcp21</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/action/authorSubmission?show=instructions&amp;journalCode=ncal20</t>
   </si>
 </sst>
 </file>
@@ -4016,14 +4130,14 @@
         <v>246</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" ref="D98:D129" si="9">IF(C98 = "&lt;100","NaN",B98/C98)</f>
+        <f t="shared" ref="D98:D101" si="9">IF(C98 = "&lt;100","NaN",B98/C98)</f>
         <v>6.5040650406504072E-2</v>
       </c>
       <c r="E98" s="8">
         <v>0</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" ref="F98:F129" si="10">E98/B98</f>
+        <f t="shared" ref="F98:F101" si="10">E98/B98</f>
         <v>0</v>
       </c>
       <c r="G98" s="2">
@@ -4122,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4161,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="13">
         <f>IF(B2=1,1,0)</f>
@@ -4218,7 +4332,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="B5" s="13">
         <v>3</v>
@@ -4329,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
@@ -4350,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="0"/>
@@ -4371,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="0"/>
@@ -4392,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="0"/>
@@ -4410,10 +4524,10 @@
         <v>64</v>
       </c>
       <c r="B14" s="13">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>122</v>
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="0"/>
@@ -4434,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="13">
         <f t="shared" si="0"/>
@@ -4455,7 +4569,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
@@ -4476,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="13">
         <f t="shared" si="0"/>
@@ -4497,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
@@ -4512,13 +4626,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="B19" s="13">
         <v>2</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
@@ -4539,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="0"/>
@@ -4560,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="0"/>
@@ -4581,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="0"/>
@@ -4602,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="0"/>
@@ -4623,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="0"/>
@@ -4644,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="0"/>
@@ -4664,8 +4778,8 @@
       <c r="B26" s="13">
         <v>3</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>139</v>
+      <c r="C26" t="s">
+        <v>138</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="0"/>
@@ -4686,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="0"/>
@@ -4706,8 +4820,8 @@
       <c r="B28" s="13">
         <v>2</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>141</v>
+      <c r="C28" t="s">
+        <v>140</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="0"/>
@@ -4728,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="0"/>
@@ -4749,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="0"/>
@@ -4770,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="0"/>
@@ -4791,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="0"/>
@@ -4806,13 +4920,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="B33" s="13">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="0"/>
@@ -4833,7 +4947,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="0"/>
@@ -4854,7 +4968,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="13">
         <f t="shared" si="0"/>
@@ -4875,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="0"/>
@@ -4896,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37" s="13">
         <f t="shared" si="0"/>
@@ -4916,8 +5030,8 @@
       <c r="B38" s="13">
         <v>2</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>150</v>
+      <c r="C38" t="s">
+        <v>149</v>
       </c>
       <c r="D38" s="13">
         <f t="shared" si="0"/>
@@ -4938,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" si="0"/>
@@ -4978,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="13">
         <f t="shared" si="0"/>
@@ -4999,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="13">
         <f t="shared" si="0"/>
@@ -5020,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="13">
         <f t="shared" si="0"/>
@@ -5041,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D44" s="13">
         <f t="shared" si="0"/>
@@ -5062,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D45" s="13">
         <f t="shared" si="0"/>
@@ -5083,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="13">
         <f t="shared" si="0"/>
@@ -5104,7 +5218,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" s="13">
         <f t="shared" si="0"/>
@@ -5125,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
@@ -5146,7 +5260,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" s="13">
         <f t="shared" si="0"/>
@@ -5167,7 +5281,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
@@ -5188,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="0"/>
@@ -5209,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="0"/>
@@ -5230,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="0"/>
@@ -5251,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="13">
         <f t="shared" si="0"/>
@@ -5272,7 +5386,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="13">
         <f t="shared" si="0"/>
@@ -5293,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="13">
         <f t="shared" si="0"/>
@@ -5311,10 +5425,10 @@
         <v>17</v>
       </c>
       <c r="B57" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="D57" s="13">
         <f t="shared" si="0"/>
@@ -5335,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="13">
         <f t="shared" si="0"/>
@@ -5356,7 +5470,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="13">
         <f t="shared" si="0"/>
@@ -5377,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="13">
         <f t="shared" si="0"/>
@@ -5398,7 +5512,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="13">
         <f t="shared" si="0"/>
@@ -5419,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D62" s="13">
         <f t="shared" si="0"/>
@@ -5440,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D63" s="13">
         <f t="shared" si="0"/>
@@ -5461,7 +5575,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D64" s="13">
         <f t="shared" si="0"/>
@@ -5482,7 +5596,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D65" s="13">
         <f t="shared" si="0"/>
@@ -5503,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" s="13">
         <f t="shared" si="0"/>
@@ -5524,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D67" s="13">
         <f t="shared" ref="D67:D101" si="1">IF(B67=1,1,0)</f>
@@ -5545,7 +5659,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D68" s="13">
         <f t="shared" si="1"/>
@@ -5566,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D69" s="13">
         <f t="shared" si="1"/>
@@ -5587,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" s="13">
         <f t="shared" si="1"/>
@@ -5608,7 +5722,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D71" s="13">
         <f t="shared" si="1"/>
@@ -5629,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D72" s="13">
         <f t="shared" si="1"/>
@@ -5650,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D73" s="13">
         <f t="shared" si="1"/>
@@ -5671,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D74" s="13">
         <f t="shared" si="1"/>
@@ -5692,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D75" s="13">
         <f t="shared" si="1"/>
@@ -5713,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D76" s="13">
         <f t="shared" si="1"/>
@@ -5731,350 +5845,525 @@
         <v>50</v>
       </c>
       <c r="B77" s="13">
-        <v>0</v>
-      </c>
-      <c r="C77" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="D77" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="13">
-        <v>0</v>
-      </c>
-      <c r="C78" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>189</v>
+      </c>
       <c r="D78" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E78" s="14"/>
+      <c r="E78" s="14">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F78" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="13">
-        <v>0</v>
-      </c>
-      <c r="C79" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>190</v>
+      </c>
       <c r="D79" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E79" s="14"/>
+      <c r="E79" s="14">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F79" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>26</v>
       </c>
       <c r="B80" s="13">
-        <v>0</v>
-      </c>
-      <c r="C80" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>191</v>
+      </c>
       <c r="D80" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="13">
-        <v>0</v>
-      </c>
-      <c r="C81" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="D81" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1</v>
       </c>
       <c r="B82" s="13">
-        <v>0</v>
-      </c>
-      <c r="C82" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="D82" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>93</v>
       </c>
       <c r="B83" s="13">
-        <v>0</v>
-      </c>
-      <c r="C83" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="D83" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E83" s="14"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E83" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>28</v>
       </c>
       <c r="B84" s="13">
-        <v>0</v>
-      </c>
-      <c r="C84" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="D84" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E84" s="14">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="F84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="B85" s="13">
-        <v>0</v>
-      </c>
-      <c r="C85" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="D85" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E85" s="14"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E85" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>63</v>
       </c>
       <c r="B86" s="13">
-        <v>0</v>
-      </c>
-      <c r="C86" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="D86" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="14">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
       <c r="B87" s="13">
-        <v>0</v>
-      </c>
-      <c r="C87" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>202</v>
+      </c>
       <c r="D87" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E87" s="14"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="14">
+        <v>1.097</v>
+      </c>
+      <c r="F87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>54</v>
       </c>
       <c r="B88" s="13">
-        <v>0</v>
-      </c>
-      <c r="C88" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="D88" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E88" s="14"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E88" s="14">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>79</v>
       </c>
       <c r="B89" s="13">
-        <v>0</v>
-      </c>
-      <c r="C89" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="D89" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E89" s="14"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>25</v>
       </c>
       <c r="B90" s="13">
-        <v>0</v>
-      </c>
-      <c r="C90" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>204</v>
+      </c>
       <c r="D90" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E90" s="14"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="14">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
       <c r="B91" s="13">
-        <v>0</v>
-      </c>
-      <c r="C91" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>205</v>
+      </c>
       <c r="D91" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E91" s="14"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E91" s="14">
+        <v>1.679</v>
+      </c>
+      <c r="F91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="B92" s="13">
-        <v>0</v>
-      </c>
-      <c r="C92" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="D92" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E92" s="14"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>98</v>
       </c>
       <c r="B93" s="13">
-        <v>0</v>
-      </c>
-      <c r="C93" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="D93" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E93" s="14"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="14">
+        <v>1.286</v>
+      </c>
+      <c r="F93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="13">
-        <v>0</v>
-      </c>
-      <c r="C94" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>209</v>
+      </c>
       <c r="D94" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E94" s="14"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="14">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="F94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>41</v>
       </c>
       <c r="B95" s="13">
-        <v>0</v>
-      </c>
-      <c r="C95" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>210</v>
+      </c>
       <c r="D95" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E95" s="14"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E95" s="14">
+        <v>0.308</v>
+      </c>
+      <c r="F95" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>59</v>
       </c>
       <c r="B96" s="13">
-        <v>0</v>
-      </c>
-      <c r="C96" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>211</v>
+      </c>
       <c r="D96" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E96" s="14"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="14">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>84</v>
       </c>
       <c r="B97" s="13">
-        <v>0</v>
-      </c>
-      <c r="C97" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>212</v>
+      </c>
       <c r="D97" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E97" s="14"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="14">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>61</v>
       </c>
       <c r="B98" s="13">
-        <v>0</v>
-      </c>
-      <c r="C98" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>213</v>
+      </c>
       <c r="D98" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E98" s="14"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="14">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="13">
-        <v>0</v>
-      </c>
-      <c r="C99" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>214</v>
+      </c>
       <c r="D99" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E99" s="14"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>31</v>
       </c>
       <c r="B100" s="13">
-        <v>0</v>
-      </c>
-      <c r="C100" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="D100" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E100" s="14"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="14">
+        <v>1.139</v>
+      </c>
+      <c r="F100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>29</v>
       </c>
       <c r="B101" s="13">
-        <v>0</v>
-      </c>
-      <c r="C101" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="D101" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E101" s="14"/>
+      <c r="E101" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
